--- a/部落战统计.xlsx
+++ b/部落战统计.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,16 +452,16 @@
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="19.5" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="19.5" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="19.5" customWidth="1" min="7" max="7"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
     <col width="19.5" customWidth="1" min="10" max="10"/>
     <col width="24.5" customWidth="1" min="11" max="11"/>
-    <col width="24.5" customWidth="1" min="12" max="12"/>
+    <col width="23" customWidth="1" min="12" max="12"/>
     <col width="19.5" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -536,34 +536,26 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
+      <c r="E2" s="2" t="n">
+        <v>0.6667000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
+      <c r="G2" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
@@ -571,10 +563,8 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -586,34 +576,26 @@
       <c r="B3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I3" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>2</v>
@@ -621,60 +603,48 @@
       <c r="K3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="L3" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>緋颯</t>
+          <t>锤飒</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="G4" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -686,34 +656,26 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="C5" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
+      <c r="E5" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="G5" s="2" t="n">
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>6</v>
@@ -721,10 +683,8 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -736,34 +696,26 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="C6" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>83.33%</t>
-        </is>
+      <c r="E6" s="2" t="n">
+        <v>0.8332999999999999</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
@@ -771,10 +723,8 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -786,34 +736,26 @@
       <c r="B7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E7" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I7" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>2</v>
@@ -821,10 +763,8 @@
       <c r="K7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="L7" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -836,34 +776,26 @@
       <c r="B8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C8" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E8" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G8" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I8" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>2</v>
@@ -871,60 +803,48 @@
       <c r="K8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="L8" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>星星vitas</t>
+          <t>星星 Vitas</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="E9" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.6667000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L9" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -936,34 +856,26 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="E10" s="2" t="n">
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
@@ -971,10 +883,8 @@
       <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="L10" s="2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
@@ -986,34 +896,26 @@
       <c r="B11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C11" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E11" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G11" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I11" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>2</v>
@@ -1021,10 +923,8 @@
       <c r="K11" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="L11" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1036,34 +936,26 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="E12" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>83.33%</t>
-        </is>
+      <c r="G12" s="2" t="n">
+        <v>0.8332999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>6</v>
@@ -1071,10 +963,8 @@
       <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L12" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1086,34 +976,26 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="C13" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="D13" t="n">
         <v>3</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="E13" s="2" t="n">
+        <v>0.5</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="G13" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="I13" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="J13" t="n">
         <v>6</v>
@@ -1121,10 +1003,8 @@
       <c r="K13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L13" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1136,34 +1016,26 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="C14" s="2" t="n">
+        <v>0.5</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G14" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I14" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
@@ -1171,10 +1043,8 @@
       <c r="K14" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="L14" s="2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -1186,34 +1056,26 @@
       <c r="B15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C15" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E15" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G15" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I15" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>2</v>
@@ -1221,10 +1083,8 @@
       <c r="K15" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L15" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="L15" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1236,34 +1096,26 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="C16" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
+      <c r="E16" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
+      <c r="G16" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I16" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>6</v>
@@ -1271,10 +1123,8 @@
       <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="L16" s="2" t="n">
+        <v>0.1667</v>
       </c>
     </row>
     <row r="17">
@@ -1286,34 +1136,26 @@
       <c r="B17" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
+      <c r="E17" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="F17" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
+      <c r="G17" s="2" t="n">
+        <v>0.6667000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I17" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>6</v>
@@ -1321,10 +1163,8 @@
       <c r="K17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L17" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1336,34 +1176,26 @@
       <c r="B18" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>5</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>83.33%</t>
-        </is>
+      <c r="E18" s="2" t="n">
+        <v>0.8332999999999999</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="G18" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I18" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>6</v>
@@ -1371,10 +1203,8 @@
       <c r="K18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L18" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1386,34 +1216,26 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E19" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="G19" s="2" t="n">
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I19" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
@@ -1421,10 +1243,8 @@
       <c r="K19" t="n">
         <v>2</v>
       </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="L19" s="2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -1436,34 +1256,26 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="E20" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="G20" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="I20" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="J20" t="n">
         <v>6</v>
@@ -1471,10 +1283,8 @@
       <c r="K20" t="n">
         <v>3</v>
       </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="L20" s="2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -1486,34 +1296,26 @@
       <c r="B21" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
+      <c r="C21" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
+      <c r="E21" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="G21" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I21" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>6</v>
@@ -1521,10 +1323,8 @@
       <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="L21" s="2" t="n">
+        <v>0.1667</v>
       </c>
     </row>
     <row r="22">
@@ -1536,34 +1336,26 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C22" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="E22" s="2" t="n">
+        <v>0.5</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="G22" s="2" t="n">
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I22" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
@@ -1571,10 +1363,8 @@
       <c r="K22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L22" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1586,34 +1376,26 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="E23" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>83.33%</t>
-        </is>
+      <c r="G23" s="2" t="n">
+        <v>0.8332999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I23" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>6</v>
@@ -1621,10 +1403,8 @@
       <c r="K23" t="n">
         <v>0</v>
       </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L23" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1636,34 +1416,26 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="E24" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G24" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I24" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>2</v>
@@ -1671,10 +1443,8 @@
       <c r="K24" t="n">
         <v>0</v>
       </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L24" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1686,34 +1456,26 @@
       <c r="B25" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C25" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E25" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F25" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G25" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H25" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I25" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J25" s="3" t="n">
         <v>2</v>
@@ -1721,10 +1483,8 @@
       <c r="K25" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L25" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="L25" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1736,34 +1496,26 @@
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="C26" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E26" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>5</v>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>83.33%</t>
-        </is>
+      <c r="G26" s="2" t="n">
+        <v>0.8332999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I26" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>6</v>
@@ -1771,60 +1523,48 @@
       <c r="K26" t="n">
         <v>0</v>
       </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L26" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>煞￡长灬丿啸</t>
+          <t>煞長嘯</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2</v>
       </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="C27" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0.6667000000000001</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G27" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I27" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L27" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1836,34 +1576,26 @@
       <c r="B28" t="n">
         <v>0</v>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C28" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
+      <c r="E28" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="F28" t="n">
         <v>5</v>
       </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>83.33%</t>
-        </is>
+      <c r="G28" s="2" t="n">
+        <v>0.8332999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I28" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>6</v>
@@ -1871,10 +1603,8 @@
       <c r="K28" t="n">
         <v>0</v>
       </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L28" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1886,34 +1616,26 @@
       <c r="B29" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
+      <c r="C29" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
+      <c r="E29" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="F29" t="n">
         <v>2</v>
       </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
+      <c r="G29" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I29" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>6</v>
@@ -1921,60 +1643,48 @@
       <c r="K29" t="n">
         <v>0</v>
       </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L29" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>夜色如酒~寻人醉~</t>
+          <t>夜色如酒～导人醉～</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="C30" s="2" t="n">
+        <v>0.25</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="E30" s="2" t="n">
+        <v>0.25</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G30" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I30" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
@@ -1986,34 +1696,26 @@
       <c r="B31" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C31" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E31" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F31" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G31" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I31" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J31" s="3" t="n">
         <v>2</v>
@@ -2021,10 +1723,8 @@
       <c r="K31" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L31" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="L31" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2036,34 +1736,26 @@
       <c r="B32" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C32" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E32" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G32" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I32" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="n">
         <v>2</v>
@@ -2071,10 +1763,8 @@
       <c r="K32" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L32" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="L32" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2086,34 +1776,26 @@
       <c r="B33" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C33" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D33" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E33" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G33" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G33" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I33" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="n">
         <v>2</v>
@@ -2121,10 +1803,8 @@
       <c r="K33" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L33" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="L33" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2136,34 +1816,26 @@
       <c r="B34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C34" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E34" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G34" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I34" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J34" s="3" t="n">
         <v>2</v>
@@ -2171,10 +1843,8 @@
       <c r="K34" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L34" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="L34" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2186,34 +1856,26 @@
       <c r="B35" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C35" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E35" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F35" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G35" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G35" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I35" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="n">
         <v>2</v>
@@ -2221,60 +1883,48 @@
       <c r="K35" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L35" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="L35" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Xber</t>
+          <t>XbeR</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>0.1667</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>0.5</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I36" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
-      <c r="L36" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L36" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2286,34 +1936,26 @@
       <c r="B37" t="n">
         <v>0</v>
       </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C37" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
       </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
+      <c r="E37" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="F37" t="n">
         <v>4</v>
       </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
+      <c r="G37" s="2" t="n">
+        <v>0.6667000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I37" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>6</v>
@@ -2321,10 +1963,8 @@
       <c r="K37" t="n">
         <v>0</v>
       </c>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L37" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2336,34 +1976,26 @@
       <c r="B38" t="n">
         <v>0</v>
       </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C38" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="E38" s="2" t="n">
+        <v>0.5</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+      <c r="G38" s="2" t="n">
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I38" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>2</v>
@@ -2371,10 +2003,8 @@
       <c r="K38" t="n">
         <v>0</v>
       </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L38" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2386,34 +2016,26 @@
       <c r="B39" t="n">
         <v>0</v>
       </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C39" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
       </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>33.33%</t>
-        </is>
+      <c r="E39" s="2" t="n">
+        <v>0.3333</v>
       </c>
       <c r="F39" t="n">
         <v>4</v>
       </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
+      <c r="G39" s="2" t="n">
+        <v>0.6667000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I39" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>6</v>
@@ -2421,10 +2043,8 @@
       <c r="K39" t="n">
         <v>0</v>
       </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L39" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2436,34 +2056,26 @@
       <c r="B40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C40" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="E40" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G40" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G40" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I40" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I40" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J40" s="3" t="n">
         <v>2</v>
@@ -2471,10 +2083,8 @@
       <c r="K40" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L40" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="L40" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2486,34 +2096,26 @@
       <c r="B41" t="n">
         <v>0</v>
       </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C41" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>25.00%</t>
-        </is>
+      <c r="E41" s="2" t="n">
+        <v>0.25</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="G41" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I41" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
@@ -2521,49 +2123,39 @@
       <c r="K41" t="n">
         <v>3</v>
       </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>75.00%</t>
-        </is>
+      <c r="L41" s="2" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>锤飒</t>
+          <t>Sg-Group 吴彦祖</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>0.75</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>0.25</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I42" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>4</v>
@@ -2571,49 +2163,39 @@
       <c r="K42" t="n">
         <v>0</v>
       </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L42" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>星星 Vitas</t>
+          <t>清风 / 于世</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>25.00%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>0.25</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
       </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>75.00%</t>
-        </is>
+      <c r="G43" s="2" t="n">
+        <v>0.75</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I43" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>4</v>
@@ -2621,410 +2203,128 @@
       <c r="K43" t="n">
         <v>0</v>
       </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L43" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Sg-Group 吴彦祖</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>75.00%</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>25.00%</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>4</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>、Evil. 梦萦</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>清风 / 于世</t>
+          <t>挽风出征寸草不生</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C45" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>25.00%</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
-      </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>75.00%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="I45" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
-      <c r="L45" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="L45" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>煞長嘯</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>4</v>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>4</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>夜色如酒～导人醉～</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="H47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="J47" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K47" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L47" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>XbeR</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>25.00%</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>25.00%</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>4</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>、Evil. 梦萦</t>
-        </is>
-      </c>
-      <c r="B49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="H49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="J49" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K49" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L49" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>挽风出征寸草不生</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>弑婆</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="H51" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" s="4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="J51" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K51" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L51" s="4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+      <c r="B46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/部落战统计.xlsx
+++ b/部落战统计.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -461,7 +461,7 @@
     <col width="23" customWidth="1" min="9" max="9"/>
     <col width="19.5" customWidth="1" min="10" max="10"/>
     <col width="24.5" customWidth="1" min="11" max="11"/>
-    <col width="23" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
     <col width="19.5" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -543,13 +543,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.375</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="5">
@@ -654,19 +654,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>0.5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -697,13 +697,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.8332999999999999</v>
+        <v>0.625</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.8332999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1097,19 +1097,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1118,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17">
@@ -1143,13 +1143,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1174,22 +1174,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.8332999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.375</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22">
@@ -1383,13 +1383,13 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.8332999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.8332999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1580,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.8332999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1617,19 +1617,19 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.375</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.375</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1688,43 +1688,43 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>橘柚</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L31" s="4" t="n">
-        <v>1</v>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" s="2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -1894,22 +1894,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="D36" t="n">
         <v>3</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.375</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -1940,16 +1940,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.375</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.375</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.75</v>
+        <v>0.6667000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>0.25</v>
+        <v>0.3333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2180,16 +2180,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.25</v>
+        <v>0.3333</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>0.75</v>
+        <v>0.6667000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2254,16 +2254,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2325,6 +2325,86 @@
       </c>
       <c r="L46" s="4" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>幻化</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>靓譚</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/部落战统计.xlsx
+++ b/部落战统计.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
@@ -461,7 +461,7 @@
     <col width="23" customWidth="1" min="9" max="9"/>
     <col width="19.5" customWidth="1" min="10" max="10"/>
     <col width="24.5" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="23" customWidth="1" min="12" max="12"/>
     <col width="19.5" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
@@ -540,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>0.5</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -614,22 +614,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -697,13 +697,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -817,19 +817,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -937,19 +937,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1010,27 +1010,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>靓譯</t>
+          <t>靓譚</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.5</v>
+        <v>0.1667</v>
       </c>
     </row>
     <row r="15">
@@ -1097,19 +1097,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1118,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.125</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
@@ -1140,16 +1140,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1174,22 +1174,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.125</v>
+        <v>0.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1318,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>清风/于世'</t>
+          <t>清风 / 于世</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1340,16 +1340,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         <v>1</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1583,13 +1583,13 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1614,22 +1614,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D29" t="n">
         <v>3</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.25</v>
+        <v>0.1667</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K31" t="n">
         <v>2</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="32">
@@ -1768,43 +1768,43 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>叶子羡</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L33" s="4" t="n">
-        <v>1</v>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" s="2" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="34">
@@ -1897,19 +1897,19 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D36" t="n">
         <v>3</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1918,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -1940,16 +1940,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="F37" t="n">
         <v>5</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>0.5</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2014,22 +2014,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D39" t="n">
         <v>3</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2140,197 +2140,197 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>、Evil. 梦萦</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>挽风出征寸草不生</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="D44" t="n">
         <v>4</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E44" s="2" t="n">
         <v>0.6667000000000001</v>
       </c>
-      <c r="F42" t="n">
-        <v>2</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>6</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>清风 / 于世</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>弑婆</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>幻化</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>4</v>
       </c>
-      <c r="G43" s="2" t="n">
-        <v>0.6667000000000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>6</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
-        <is>
-          <t>、Evil. 梦萦</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K44" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>挽风出征寸草不生</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" s="2" t="n">
+      <c r="K46" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" s="2" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>弑婆</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K46" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L46" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>幻化</t>
+          <t>招牌虾饺</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2340,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2361,23 +2361,23 @@
         <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>靓譚</t>
+          <t>呵呵</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2405,6 +2405,86 @@
       </c>
       <c r="L48" s="2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>考试必过</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>直男团丶浮云</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/部落战统计.xlsx
+++ b/部落战统计.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.5</v>
+        <v>0.4167</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.5</v>
+        <v>0.5832999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -610,26 +610,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>锤飒</t>
+          <t>綞飖</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.1</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="5">
@@ -697,19 +697,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.1</v>
+        <v>0.0833</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.7</v>
+        <v>0.5832999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
     </row>
     <row r="7">
@@ -810,26 +810,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>星星 Vitas</t>
+          <t>星星 vitas</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.6</v>
+        <v>0.6667000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -937,19 +937,19 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.1</v>
+        <v>0.0833</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.1</v>
+        <v>0.1667</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.1</v>
+        <v>0.0833</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.3</v>
+        <v>0.3333</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1</v>
+        <v>0.0833</v>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1017,16 +1017,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>0.5</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="15">
@@ -1097,19 +1097,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.1</v>
+        <v>0.0833</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.4</v>
+        <v>0.3333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1118,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.3</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="17">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.7</v>
+        <v>0.6667000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0.1</v>
+        <v>0.0833</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.3</v>
+        <v>0.4167</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
     </row>
     <row r="22">
@@ -1343,13 +1343,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0.7</v>
+        <v>0.6667000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1358,19 +1358,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>萨乌森 桑尼号 风</t>
+          <t>萨乌森 桑尼号々风々</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1380,16 +1380,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.1</v>
+        <v>0.1667</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.9</v>
+        <v>0.8332999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1410,7 +1410,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>anIME</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.1</v>
+        <v>0.0833</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.9</v>
+        <v>0.8332999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1583,13 +1583,13 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
       <c r="F28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.8</v>
+        <v>0.8332999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1614,22 +1614,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.3</v>
+        <v>0.4167</v>
       </c>
       <c r="D29" t="n">
         <v>3</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F29" t="n">
         <v>4</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0.4</v>
+        <v>0.3333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.125</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>0.5</v>
@@ -1718,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K31" t="n">
         <v>2</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32">
@@ -1890,26 +1890,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>XbeR</t>
+          <t>Xber</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.2</v>
+        <v>0.1667</v>
       </c>
       <c r="D36" t="n">
         <v>3</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1918,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0.1</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="37">
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>0.5</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -1974,22 +1974,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.25</v>
+        <v>0.1667</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2017,19 +2017,19 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.1</v>
+        <v>0.0833</v>
       </c>
       <c r="D39" t="n">
         <v>3</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F39" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0.6</v>
+        <v>0.6667000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2130,26 +2130,26 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sg-Group 吴彦祖</t>
+          <t>Sg - Group＊吴彦祖</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="F42" t="n">
         <v>2</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2300,16 +2300,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>0.25</v>
+        <v>0.3333</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>0.25</v>
+        <v>0.3333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2318,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
         <v>2</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.5</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="47">
@@ -2340,16 +2340,16 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2485,6 +2485,86 @@
       </c>
       <c r="L50" s="4" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>黑三自己吃一巴掌不吃私朋友</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>啦啦啦啦啦</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/部落战统计.xlsx
+++ b/部落战统计.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="统计结果" sheetId="1" state="visible" r:id="rId1"/>
@@ -67,21 +67,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,19 +450,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="37" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="23" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="23" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="19.5" customWidth="1" min="10" max="10"/>
-    <col width="24.5" customWidth="1" min="11" max="11"/>
-    <col width="23" customWidth="1" min="12" max="12"/>
-    <col width="19.5" customWidth="1" min="13" max="13"/>
+    <col customWidth="1" max="1" min="1" width="37"/>
+    <col customWidth="1" max="2" min="2" width="7"/>
+    <col customWidth="1" max="3" min="3" width="23"/>
+    <col customWidth="1" max="4" min="4" width="7"/>
+    <col customWidth="1" max="5" min="5" width="23"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="23"/>
+    <col customWidth="1" max="8" min="8" width="12"/>
+    <col customWidth="1" max="9" min="9" width="23"/>
+    <col customWidth="1" max="10" min="10" width="19.5"/>
+    <col customWidth="1" max="11" min="11" width="24.5"/>
+    <col customWidth="1" max="12" min="12" width="23"/>
+    <col customWidth="1" max="13" min="13" width="19.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.4167</v>
+        <v>0.3571</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.5832999999999999</v>
+        <v>0.6429</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2143</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.2857</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.5</v>
+        <v>0.4286</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.07139999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -697,19 +697,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.07139999999999999</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.5832999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.2857</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="7">
@@ -817,19 +817,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.1429</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.1429</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.7143</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.1429</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.1429</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.75</v>
+        <v>0.7143</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.1429</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.5</v>
+        <v>0.4286</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.3571</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.07139999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1017,16 +1017,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>0.5</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
@@ -1097,19 +1097,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.07139999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2857</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.2857</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1118,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="17">
@@ -1137,19 +1137,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.07139999999999999</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2143</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.7143</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1174,22 +1174,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.2857</v>
       </c>
       <c r="D18" t="n">
         <v>9</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.75</v>
+        <v>0.6429</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.07139999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.1429</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2143</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.4167</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="22">
@@ -1343,13 +1343,13 @@
         <v>3</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2143</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.6429</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1358,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         <v>2</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.1429</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.8332999999999999</v>
+        <v>0.8571</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1414,22 +1414,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.75</v>
+        <v>0.6667000000000001</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0.25</v>
+        <v>0.1667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.07139999999999999</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.07139999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>0.8332999999999999</v>
+        <v>0.8571</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2857</v>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.75</v>
+        <v>0.7143</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1583,13 +1583,13 @@
         <v>2</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.1429</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.8332999999999999</v>
+        <v>0.8571</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1617,19 +1617,19 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.4167</v>
+        <v>0.3571</v>
       </c>
       <c r="D29" t="n">
         <v>3</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2143</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.4286</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1694,22 +1694,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="F31" t="n">
         <v>4</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K31" t="n">
         <v>2</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32">
@@ -1894,19 +1894,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.2143</v>
       </c>
       <c r="D36" t="n">
         <v>3</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2143</v>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>0.5</v>
@@ -1918,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.07139999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1940,16 +1940,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.5</v>
+        <v>0.5714</v>
       </c>
       <c r="F37" t="n">
         <v>6</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0.5</v>
+        <v>0.4286</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -1977,20 +1977,20 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>0.1667</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>0.3333</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2017,19 +2017,19 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.07139999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2857</v>
       </c>
       <c r="F39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.6429</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.1</v>
+        <v>0.0833</v>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.7</v>
+        <v>0.6667000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2300,16 +2300,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.375</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.375</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2318,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K46" t="n">
         <v>2</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="47">
@@ -2343,13 +2343,13 @@
         <v>3</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.25</v>
+        <v>0.1667</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>0.75</v>
+        <v>0.8332999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2567,7 +2567,87 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>闪耀、天使</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>丌亡</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/部落战统计.xlsx
+++ b/部落战统计.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <col customWidth="1" max="6" min="6" width="12"/>
     <col customWidth="1" max="7" min="7" width="23"/>
     <col customWidth="1" max="8" min="8" width="12"/>
-    <col customWidth="1" max="9" min="9" width="23"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
     <col customWidth="1" max="10" min="10" width="19.5"/>
     <col customWidth="1" max="11" min="11" width="24.5"/>
     <col customWidth="1" max="12" min="12" width="23"/>
@@ -540,71 +540,71 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>其实很简单</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F3" t="n">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0.3571</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0.6429</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>其實很簡單</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1</v>
+      <c r="G3" s="2" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -614,22 +614,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.2143</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.2857</v>
+        <v>0.35</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.4286</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.07139999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -657,19 +657,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.25</v>
+        <v>0.1429</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.25</v>
+        <v>0.4286</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.5</v>
+        <v>0.4286</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -697,19 +697,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.07139999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.2857</v>
+        <v>0.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.1429</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>1</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>1</v>
@@ -817,19 +817,19 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.1429</v>
+        <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.1429</v>
+        <v>0.25</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.7143</v>
+        <v>0.65</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>南城芘港</t>
+          <t>南城苝港</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -878,53 +878,53 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>坂田-giao</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>1</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>坂田 - giao</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="12">
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.1429</v>
+        <v>0.2</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.1429</v>
+        <v>0.15</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.7143</v>
+        <v>0.65</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.1429</v>
+        <v>0.1</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.4286</v>
+        <v>0.45</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.3571</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.07139999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="J13" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1014,19 +1014,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.3</v>
+        <v>0.3125</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>0.5</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.1</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="15">
@@ -1097,19 +1097,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.07139999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.2857</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.2857</v>
+        <v>0.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1118,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.3571</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -1137,19 +1137,19 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.07139999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.2143</v>
+        <v>0.25</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.7143</v>
+        <v>0.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1174,22 +1174,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.2857</v>
+        <v>0.5</v>
       </c>
       <c r="D18" t="n">
         <v>9</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.6429</v>
+        <v>0.45</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>0.07139999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1238,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>海风掀起爱意</t>
+          <t>爱总是身不由己</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1260,31 +1260,31 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.4167</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.0833</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21">
@@ -1297,19 +1297,19 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.1429</v>
+        <v>0.1</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.2143</v>
+        <v>0.15</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.1429</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22">
@@ -1340,16 +1340,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.2143</v>
+        <v>0.25</v>
       </c>
       <c r="F22" t="n">
         <v>9</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0.6429</v>
+        <v>0.45</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1358,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.1429</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
@@ -1380,16 +1380,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.1429</v>
+        <v>0.15</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0.8571</v>
+        <v>0.75</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1398,38 +1398,38 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>anIME</t>
+          <t xml:space="preserve">anIME </t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.0833</v>
       </c>
       <c r="D24" t="n">
         <v>4</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.3333</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0.1667</v>
+        <v>0.5832999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1534,22 +1534,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.2857</v>
+        <v>0.25</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.7143</v>
+        <v>0.5</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1580,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.1429</v>
+        <v>0.15</v>
       </c>
       <c r="F28" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>0.8571</v>
+        <v>0.85</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1617,19 +1617,19 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.3571</v>
+        <v>0.25</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.2143</v>
+        <v>0.3</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0.4286</v>
+        <v>0.45</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1694,77 +1694,77 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>16</v>
+      </c>
+      <c r="K31" t="n">
         <v>4</v>
       </c>
-      <c r="G31" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>10</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2</v>
-      </c>
       <c r="L31" s="2" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>瑞托崔普</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K32" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L32" s="4" t="n">
-        <v>1</v>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="33">
@@ -1780,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1798,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34">
@@ -1878,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="J35" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>1</v>
@@ -1890,26 +1890,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Xber</t>
+          <t>XbeR</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>3</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.2143</v>
+        <v>0.15</v>
       </c>
       <c r="D36" t="n">
         <v>3</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.2143</v>
+        <v>0.15</v>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1918,13 +1918,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0.07139999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="37">
@@ -1934,22 +1934,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D37" t="n">
         <v>8</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.5714</v>
+        <v>0.4</v>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0.4286</v>
+        <v>0.55</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.125</v>
+        <v>0.1667</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>0.5</v>
+        <v>0.5832999999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2017,19 +2017,19 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.07139999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="D39" t="n">
         <v>4</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.2857</v>
+        <v>0.2</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>0.6429</v>
+        <v>0.75</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>1</v>
@@ -2103,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0.25</v>
+        <v>0.1667</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2118,13 +2118,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0.75</v>
+        <v>0.8332999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -2134,31 +2134,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.0833</v>
+        <v>0.2222</v>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.6667000000000001</v>
+        <v>0.5556</v>
       </c>
       <c r="F42" t="n">
         <v>3</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>0.25</v>
+        <v>0.1667</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="J42" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2217,19 +2217,19 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.3</v>
+        <v>0.2143</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0.7</v>
+        <v>0.5714</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>0</v>
+        <v>0.2143</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2300,16 +2300,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>0.375</v>
+        <v>0.3571</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>0.375</v>
+        <v>0.3571</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2318,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.25</v>
+        <v>0.2857</v>
       </c>
     </row>
     <row r="47">
@@ -2377,19 +2377,19 @@
         <v>1</v>
       </c>
       <c r="C48" s="2" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2" t="n">
         <v>0.1667</v>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>0.8332999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2549,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53">
@@ -2574,22 +2574,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -2620,16 +2620,16 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F54" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2638,12 +2638,412 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>不悔谷</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>6</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2" t="n">
+        <v>0.3333</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sg - Group＊流星</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>辉总.</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>0.8332999999999999</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>6</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>墨苏</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>5</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>0.8332999999999999</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>6</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>石头</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>6</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
+      <c r="L59" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>渐渐声声慢</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4</v>
+      </c>
+      <c r="L60" s="2" t="n">
+        <v>0.6667000000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ks 陌寒 南征北战</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>0.6667000000000001</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>6</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" s="2" t="n">
+        <v>0.1667</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>心的旅途</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>枫华谷</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>玄天无名</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="n">
         <v>0</v>
       </c>
     </row>
